--- a/hw/hw2/hw2_algorithm_testing.xlsx
+++ b/hw/hw2/hw2_algorithm_testing.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zackmcnulty/Desktop/CSE/417/hw/hw2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0D7045-4EFC-7F4F-A5C8-4314A33A9709}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4B6B46-6C26-1549-9617-B79A30208825}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="760" windowWidth="28040" windowHeight="17040" xr2:uid="{655B9E93-3D61-2645-88BB-75B84C8FC629}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{655B9E93-3D61-2645-88BB-75B84C8FC629}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$B$2:$B$64</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$D$2:$D$64</definedName>
+    <definedName name="test_results" localSheetId="0">Sheet2!$A$2:$D$64</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,23 +35,255 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{C0734B9C-E119-B745-8D91-723701C7823D}" name="test_results" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/zackmcnulty/Desktop/CSE/417/hw/hw2/test_results.txt" space="1" consecutive="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>test file name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+  <si>
+    <t>nodes</t>
+  </si>
+  <si>
+    <t>edges</t>
+  </si>
+  <si>
+    <t>runtime</t>
+  </si>
+  <si>
+    <t>n1024d32s7.txt</t>
+  </si>
+  <si>
+    <t>n1024d32s8.txt</t>
+  </si>
+  <si>
+    <t>n1024d32s9.txt</t>
+  </si>
+  <si>
+    <t>n1024d3s1.txt</t>
+  </si>
+  <si>
+    <t>n1024d3s2.txt</t>
+  </si>
+  <si>
+    <t>n1024d3s3.txt</t>
+  </si>
+  <si>
+    <t>n1024d6s4.txt</t>
+  </si>
+  <si>
+    <t>n1024d6s5.txt</t>
+  </si>
+  <si>
+    <t>n1024d6s6.txt</t>
+  </si>
+  <si>
+    <t>n128d11s7.txt</t>
+  </si>
+  <si>
+    <t>n128d11s8.txt</t>
+  </si>
+  <si>
+    <t>n128d11s9.txt</t>
+  </si>
+  <si>
+    <t>n128d3s1.txt</t>
+  </si>
+  <si>
+    <t>n128d3s2.txt</t>
+  </si>
+  <si>
+    <t>n128d3s3.txt</t>
+  </si>
+  <si>
+    <t>n128d6s4.txt</t>
+  </si>
+  <si>
+    <t>n128d6s5.txt</t>
+  </si>
+  <si>
+    <t>n128d6s6.txt</t>
+  </si>
+  <si>
+    <t>n16d3s1.txt</t>
+  </si>
+  <si>
+    <t>n16d3s2.txt</t>
+  </si>
+  <si>
+    <t>n16d3s3.txt</t>
+  </si>
+  <si>
+    <t>n16d4s7.txt</t>
+  </si>
+  <si>
+    <t>n16d4s8.txt</t>
+  </si>
+  <si>
+    <t>n16d4s9.txt</t>
+  </si>
+  <si>
+    <t>n16d6s4.txt</t>
+  </si>
+  <si>
+    <t>n16d6s5.txt</t>
+  </si>
+  <si>
+    <t>n16d6s6.txt</t>
+  </si>
+  <si>
+    <t>n256d16s7.txt</t>
+  </si>
+  <si>
+    <t>n256d16s8.txt</t>
+  </si>
+  <si>
+    <t>n256d16s9.txt</t>
+  </si>
+  <si>
+    <t>n256d3s1.txt</t>
+  </si>
+  <si>
+    <t>n256d3s2.txt</t>
+  </si>
+  <si>
+    <t>n256d3s3.txt</t>
+  </si>
+  <si>
+    <t>n256d6s4.txt</t>
+  </si>
+  <si>
+    <t>n256d6s5.txt</t>
+  </si>
+  <si>
+    <t>n256d6s6.txt</t>
+  </si>
+  <si>
+    <t>n32d3s1.txt</t>
+  </si>
+  <si>
+    <t>n32d3s2.txt</t>
+  </si>
+  <si>
+    <t>n32d3s3.txt</t>
+  </si>
+  <si>
+    <t>n32d6s4.txt</t>
+  </si>
+  <si>
+    <t>n32d6s5.txt</t>
+  </si>
+  <si>
+    <t>n32d6s6.txt</t>
+  </si>
+  <si>
+    <t>n32d6s7.txt</t>
+  </si>
+  <si>
+    <t>n32d6s8.txt</t>
+  </si>
+  <si>
+    <t>n32d6s9.txt</t>
+  </si>
+  <si>
+    <t>n512d23s7.txt</t>
+  </si>
+  <si>
+    <t>n512d23s8.txt</t>
+  </si>
+  <si>
+    <t>n512d23s9.txt</t>
+  </si>
+  <si>
+    <t>n512d3s1.txt</t>
+  </si>
+  <si>
+    <t>n512d3s2.txt</t>
+  </si>
+  <si>
+    <t>n512d3s3.txt</t>
+  </si>
+  <si>
+    <t>n512d6s4.txt</t>
+  </si>
+  <si>
+    <t>n512d6s5.txt</t>
+  </si>
+  <si>
+    <t>n512d6s6.txt</t>
+  </si>
+  <si>
+    <t>n64d3s1.txt</t>
+  </si>
+  <si>
+    <t>n64d3s2.txt</t>
+  </si>
+  <si>
+    <t>n64d3s3.txt</t>
+  </si>
+  <si>
+    <t>n64d6s4.txt</t>
+  </si>
+  <si>
+    <t>n64d6s5.txt</t>
+  </si>
+  <si>
+    <t>n64d6s6.txt</t>
+  </si>
+  <si>
+    <t>n64d8s7.txt</t>
+  </si>
+  <si>
+    <t>n64d8s8.txt</t>
+  </si>
+  <si>
+    <t>n64d8s9.txt</t>
+  </si>
+  <si>
+    <t>filename</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF6D6D6D"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -68,8 +306,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -85,6 +327,2939 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Runtime vs Nodes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>4.1021108627319301E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.25009727478027E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.33771610260009E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4991245269775304E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0169696807861302E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6660175323486302E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5852146148681606E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4509124755859306E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0627670288085903E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6853809356689401E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6500949859619099E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7488002777099601E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.3504447937011697E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.3310394287109299E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6982040405273405E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0559558868408201E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.8204612731933594E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.9587440490722591E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.32083892822265E-4</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00E+00">
+                  <c:v>6.6995620727538995E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.20162963867187E-4</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00E+00">
+                  <c:v>8.4877014160156196E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4424324035644499E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.81913375854492E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3603439331054601E-4</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00E+00">
+                  <c:v>6.8187713623046794E-5</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00E+00">
+                  <c:v>9.7036361694335897E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.99918174743652E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.4516792297363203E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.3579082489013602E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2331008911132799E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2440681457519501E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.1500587463378902E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.1278858184814401E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.6240348815917899E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.1712779998779201E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.15053558349609E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.4281272888183499E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.3184547424316401E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.0909309387206999E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.5105476379394499E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.1409988403320299E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.77860260009765E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.11000442504882E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.01940536499023E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.42416954040527E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.44031047821044E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.4511823654174799E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.3276805877685499E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.3810863494872999E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.3539066314697201E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.1782131195068299E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.1150321960449201E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.9469470977783203E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.3293495178222599E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.5119056701660102E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.53200531005859E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.7516822814941401E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.9591064453125E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.1212310791015603E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.9008598327636697E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.52892684936523E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.3620338439941395E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F9F-6D40-8C73-94BFC553F027}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="524081760"/>
+        <c:axId val="566952208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="524081760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Input (Nodes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="566952208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="566952208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524081760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime vs Edges</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="62"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-FB38-5843-B925-CC4E3AB8539D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>31406</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31510</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3071</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3049</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3090</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5980</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6030</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6153</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1357</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1224</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1373</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3957</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3773</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1492</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1508</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1499</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10741</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11213</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11587</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1521</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1535</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1540</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3099</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3004</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2977</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>4.1021108627319301E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.25009727478027E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.33771610260009E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4991245269775304E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0169696807861302E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6660175323486302E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5852146148681606E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4509124755859306E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0627670288085903E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6853809356689401E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6500949859619099E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7488002777099601E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.3504447937011697E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.3310394287109299E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6982040405273405E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0559558868408201E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.8204612731933594E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.9587440490722591E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.32083892822265E-4</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00E+00">
+                  <c:v>6.6995620727538995E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.20162963867187E-4</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00E+00">
+                  <c:v>8.4877014160156196E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4424324035644499E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.81913375854492E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3603439331054601E-4</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00E+00">
+                  <c:v>6.8187713623046794E-5</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00E+00">
+                  <c:v>9.7036361694335897E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.99918174743652E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.4516792297363203E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.3579082489013602E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2331008911132799E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2440681457519501E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.1500587463378902E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.1278858184814401E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.6240348815917899E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.1712779998779201E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.15053558349609E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.4281272888183499E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.3184547424316401E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.0909309387206999E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.5105476379394499E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.1409988403320299E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.77860260009765E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.11000442504882E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.01940536499023E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.42416954040527E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.44031047821044E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.4511823654174799E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.3276805877685499E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.3810863494872999E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.3539066314697201E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.1782131195068299E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.1150321960449201E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.9469470977783203E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.3293495178222599E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.5119056701660102E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.53200531005859E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.7516822814941401E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.9591064453125E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.1212310791015603E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.9008598327636697E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.52892684936523E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.3620338439941395E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB38-5843-B925-CC4E3AB8539D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="522717424"/>
+        <c:axId val="525443904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="522717424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Input Size (number of edges)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525443904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="525443904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522717424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51D9E13B-04D6-F34C-AAD4-63D94AD08F1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ACC3A15-110C-984D-B810-9DAEBF4FE169}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_results" connectionId="1" xr16:uid="{704C16CB-94F8-E549-B972-16581D9B5AD3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,17 +3558,955 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FEB0E3-6FED-A94F-B518-DE0487B45B0A}">
+  <dimension ref="A1:D64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1024</v>
+      </c>
+      <c r="C2">
+        <v>31406</v>
+      </c>
+      <c r="D2">
+        <v>4.1021108627319301E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1024</v>
+      </c>
+      <c r="C3">
+        <v>31510</v>
+      </c>
+      <c r="D3">
+        <v>4.25009727478027E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1024</v>
+      </c>
+      <c r="C4">
+        <v>32273</v>
+      </c>
+      <c r="D4">
+        <v>4.33771610260009E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1024</v>
+      </c>
+      <c r="C5">
+        <v>3071</v>
+      </c>
+      <c r="D5">
+        <v>5.4991245269775304E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1024</v>
+      </c>
+      <c r="C6">
+        <v>3049</v>
+      </c>
+      <c r="D6">
+        <v>6.0169696807861302E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1024</v>
+      </c>
+      <c r="C7">
+        <v>3090</v>
+      </c>
+      <c r="D7">
+        <v>5.6660175323486302E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1024</v>
+      </c>
+      <c r="C8">
+        <v>5980</v>
+      </c>
+      <c r="D8">
+        <v>8.5852146148681606E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1024</v>
+      </c>
+      <c r="C9">
+        <v>6030</v>
+      </c>
+      <c r="D9">
+        <v>9.4509124755859306E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>1024</v>
+      </c>
+      <c r="C10">
+        <v>6153</v>
+      </c>
+      <c r="D10">
+        <v>9.0627670288085903E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>128</v>
+      </c>
+      <c r="C11">
+        <v>1357</v>
+      </c>
+      <c r="D11">
+        <v>1.6853809356689401E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>128</v>
+      </c>
+      <c r="C12">
+        <v>1224</v>
+      </c>
+      <c r="D12">
+        <v>1.6500949859619099E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>128</v>
+      </c>
+      <c r="C13">
+        <v>1373</v>
+      </c>
+      <c r="D13">
+        <v>1.7488002777099601E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>128</v>
+      </c>
+      <c r="C14">
+        <v>375</v>
+      </c>
+      <c r="D14">
+        <v>7.3504447937011697E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>128</v>
+      </c>
+      <c r="C15">
+        <v>363</v>
+      </c>
+      <c r="D15">
+        <v>5.3310394287109299E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>128</v>
+      </c>
+      <c r="C16">
+        <v>365</v>
+      </c>
+      <c r="D16">
+        <v>5.6982040405273405E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>128</v>
+      </c>
+      <c r="C17">
+        <v>754</v>
+      </c>
+      <c r="D17">
+        <v>1.0559558868408201E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>128</v>
+      </c>
+      <c r="C18">
+        <v>676</v>
+      </c>
+      <c r="D18">
+        <v>9.8204612731933594E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>128</v>
+      </c>
+      <c r="C19">
+        <v>714</v>
+      </c>
+      <c r="D19">
+        <v>9.9587440490722591E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>1.32083892822265E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>38</v>
+      </c>
+      <c r="D21" s="4">
+        <v>6.6995620727538995E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>47</v>
+      </c>
+      <c r="D22">
+        <v>1.20162963867187E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>45</v>
+      </c>
+      <c r="D23" s="4">
+        <v>8.4877014160156196E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>62</v>
+      </c>
+      <c r="D24">
+        <v>1.4424324035644499E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>38</v>
+      </c>
+      <c r="D25">
+        <v>1.81913375854492E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>86</v>
+      </c>
+      <c r="D26">
+        <v>2.3603439331054601E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>30</v>
+      </c>
+      <c r="D27" s="4">
+        <v>6.8187713623046794E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>58</v>
+      </c>
+      <c r="D28" s="4">
+        <v>9.7036361694335897E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>256</v>
+      </c>
+      <c r="C29">
+        <v>3957</v>
+      </c>
+      <c r="D29">
+        <v>7.99918174743652E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>256</v>
+      </c>
+      <c r="C30">
+        <v>3995</v>
+      </c>
+      <c r="D30">
+        <v>5.4516792297363203E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>256</v>
+      </c>
+      <c r="C31">
+        <v>3773</v>
+      </c>
+      <c r="D31">
+        <v>6.3579082489013602E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>256</v>
+      </c>
+      <c r="C32">
+        <v>740</v>
+      </c>
+      <c r="D32">
+        <v>1.2331008911132799E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>256</v>
+      </c>
+      <c r="C33">
+        <v>767</v>
+      </c>
+      <c r="D33">
+        <v>1.2440681457519501E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>256</v>
+      </c>
+      <c r="C34">
+        <v>752</v>
+      </c>
+      <c r="D34">
+        <v>2.1500587463378902E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>256</v>
+      </c>
+      <c r="C35">
+        <v>1492</v>
+      </c>
+      <c r="D35">
+        <v>2.1278858184814401E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>256</v>
+      </c>
+      <c r="C36">
+        <v>1508</v>
+      </c>
+      <c r="D36">
+        <v>2.6240348815917899E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>256</v>
+      </c>
+      <c r="C37">
+        <v>1499</v>
+      </c>
+      <c r="D37">
+        <v>2.1712779998779201E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>32</v>
+      </c>
+      <c r="C38">
+        <v>83</v>
+      </c>
+      <c r="D38">
+        <v>2.15053558349609E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>32</v>
+      </c>
+      <c r="C39">
+        <v>85</v>
+      </c>
+      <c r="D39">
+        <v>1.4281272888183499E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>32</v>
+      </c>
+      <c r="C40">
+        <v>79</v>
+      </c>
+      <c r="D40">
+        <v>1.3184547424316401E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>32</v>
+      </c>
+      <c r="C41">
+        <v>145</v>
+      </c>
+      <c r="D41">
+        <v>2.0909309387206999E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>32</v>
+      </c>
+      <c r="C42">
+        <v>186</v>
+      </c>
+      <c r="D42">
+        <v>2.5105476379394499E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>32</v>
+      </c>
+      <c r="C43">
+        <v>147</v>
+      </c>
+      <c r="D43">
+        <v>2.1409988403320299E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>32</v>
+      </c>
+      <c r="C44">
+        <v>110</v>
+      </c>
+      <c r="D44">
+        <v>1.77860260009765E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>32</v>
+      </c>
+      <c r="C45">
+        <v>168</v>
+      </c>
+      <c r="D45">
+        <v>2.11000442504882E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>32</v>
+      </c>
+      <c r="C46">
+        <v>140</v>
+      </c>
+      <c r="D46">
+        <v>2.01940536499023E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>512</v>
+      </c>
+      <c r="C47">
+        <v>10741</v>
+      </c>
+      <c r="D47">
+        <v>1.42416954040527E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>512</v>
+      </c>
+      <c r="C48">
+        <v>11213</v>
+      </c>
+      <c r="D48">
+        <v>1.44031047821044E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>512</v>
+      </c>
+      <c r="C49">
+        <v>11587</v>
+      </c>
+      <c r="D49">
+        <v>1.4511823654174799E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>512</v>
+      </c>
+      <c r="C50">
+        <v>1521</v>
+      </c>
+      <c r="D50">
+        <v>2.3276805877685499E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>512</v>
+      </c>
+      <c r="C51">
+        <v>1535</v>
+      </c>
+      <c r="D51">
+        <v>2.3810863494872999E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>512</v>
+      </c>
+      <c r="C52">
+        <v>1540</v>
+      </c>
+      <c r="D52">
+        <v>2.3539066314697201E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>512</v>
+      </c>
+      <c r="C53">
+        <v>3099</v>
+      </c>
+      <c r="D53">
+        <v>5.1782131195068299E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>512</v>
+      </c>
+      <c r="C54">
+        <v>3004</v>
+      </c>
+      <c r="D54">
+        <v>5.1150321960449201E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>512</v>
+      </c>
+      <c r="C55">
+        <v>2977</v>
+      </c>
+      <c r="D55">
+        <v>4.9469470977783203E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>64</v>
+      </c>
+      <c r="C56">
+        <v>166</v>
+      </c>
+      <c r="D56">
+        <v>2.3293495178222599E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>64</v>
+      </c>
+      <c r="C57">
+        <v>178</v>
+      </c>
+      <c r="D57">
+        <v>3.5119056701660102E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>64</v>
+      </c>
+      <c r="C58">
+        <v>169</v>
+      </c>
+      <c r="D58">
+        <v>2.53200531005859E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>64</v>
+      </c>
+      <c r="C59">
+        <v>347</v>
+      </c>
+      <c r="D59">
+        <v>4.7516822814941401E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>64</v>
+      </c>
+      <c r="C60">
+        <v>364</v>
+      </c>
+      <c r="D60">
+        <v>4.9591064453125E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>64</v>
+      </c>
+      <c r="C61">
+        <v>373</v>
+      </c>
+      <c r="D61">
+        <v>5.1212310791015603E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>64</v>
+      </c>
+      <c r="C62">
+        <v>379</v>
+      </c>
+      <c r="D62">
+        <v>5.9008598327636697E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>64</v>
+      </c>
+      <c r="C63">
+        <v>428</v>
+      </c>
+      <c r="D63">
+        <v>5.52892684936523E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>64</v>
+      </c>
+      <c r="C64">
+        <v>385</v>
+      </c>
+      <c r="D64">
+        <v>5.3620338439941395E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0B83E3-5B20-C542-A6AA-5C5C772CB06E}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="A1:E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hw/hw2/hw2_algorithm_testing.xlsx
+++ b/hw/hw2/hw2_algorithm_testing.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zackmcnulty/Desktop/CSE/417/hw/hw2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4B6B46-6C26-1549-9617-B79A30208825}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237184BE-1239-8B4D-89F9-734CDB1939A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{655B9E93-3D61-2645-88BB-75B84C8FC629}"/>
+    <workbookView xWindow="1400" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{655B9E93-3D61-2645-88BB-75B84C8FC629}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$B$2:$B$64</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$D$2:$D$64</definedName>
+    <definedName name="output_big" localSheetId="0">Sheet2!$A$65:$D$73</definedName>
     <definedName name="test_results" localSheetId="0">Sheet2!$A$2:$D$64</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -37,7 +36,18 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{C0734B9C-E119-B745-8D91-723701C7823D}" name="test_results" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{9EA78852-3A79-294C-A856-037EB837BE7F}" name="output_big" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/zackmcnulty/Desktop/CSE/417/hw/hw2/output_big.txt" space="1" consecutive="1">
+      <textFields count="5">
+        <textField type="skip"/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{C0734B9C-E119-B745-8D91-723701C7823D}" name="test_results" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Users/zackmcnulty/Desktop/CSE/417/hw/hw2/test_results.txt" space="1" consecutive="1">
       <textFields count="5">
         <textField/>
@@ -52,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>nodes</t>
   </si>
@@ -253,6 +263,33 @@
   </si>
   <si>
     <t>filename</t>
+  </si>
+  <si>
+    <t>bigs/n2048d12s4.txt</t>
+  </si>
+  <si>
+    <t>bigs/n2048d12s5.txt</t>
+  </si>
+  <si>
+    <t>bigs/n2048d12s6.txt</t>
+  </si>
+  <si>
+    <t>bigs/n2048d3s1.txt</t>
+  </si>
+  <si>
+    <t>bigs/n2048d3s2.txt</t>
+  </si>
+  <si>
+    <t>bigs/n2048d3s3.txt</t>
+  </si>
+  <si>
+    <t>bigs/n2048d45s7.txt</t>
+  </si>
+  <si>
+    <t>bigs/n2048d45s8.txt</t>
+  </si>
+  <si>
+    <t>bigs/n2048d45s9.txt</t>
   </si>
 </sst>
 </file>
@@ -446,10 +483,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$64</c:f>
+              <c:f>Sheet2!$B$2:$B$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>1024</c:v>
                 </c:pt>
@@ -638,16 +675,43 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$64</c:f>
+              <c:f>Sheet2!$D$2:$D$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>4.1021108627319301E-2</c:v>
                 </c:pt>
@@ -836,6 +900,33 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>5.3620338439941395E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.7985086441039997E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.7384986877441399E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.60550880432128E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.20820999145507E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.1244058609008701E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.0188102722167899E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.13002896308898901</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.13641691207885701</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.133769035339355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1354,10 +1445,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$C$2:$C$64</c:f>
+              <c:f>Sheet2!$C$2:$C$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>31406</c:v>
                 </c:pt>
@@ -1546,16 +1637,43 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>24576</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>24352</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>24280</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6130</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6174</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6170</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>90546</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>89128</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>88097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$64</c:f>
+              <c:f>Sheet2!$D$2:$D$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>4.1021108627319301E-2</c:v>
                 </c:pt>
@@ -1744,6 +1862,33 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>5.3620338439941395E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.7985086441039997E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.7384986877441399E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.60550880432128E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.20820999145507E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.1244058609008701E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.0188102722167899E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.13002896308898901</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.13641691207885701</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.133769035339355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3259,7 +3404,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_results" connectionId="1" xr16:uid="{704C16CB-94F8-E549-B972-16581D9B5AD3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="output_big" connectionId="1" xr16:uid="{E6D471A8-7DC2-7B4D-B82C-84DF0C7FF27E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test_results" connectionId="2" xr16:uid="{704C16CB-94F8-E549-B972-16581D9B5AD3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3559,15 +3708,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FEB0E3-6FED-A94F-B518-DE0487B45B0A}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
@@ -4467,6 +4616,132 @@
       </c>
       <c r="D64">
         <v>5.3620338439941395E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65">
+        <v>2048</v>
+      </c>
+      <c r="C65">
+        <v>24576</v>
+      </c>
+      <c r="D65">
+        <v>3.7985086441039997E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66">
+        <v>2048</v>
+      </c>
+      <c r="C66">
+        <v>24352</v>
+      </c>
+      <c r="D66">
+        <v>3.7384986877441399E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67">
+        <v>2048</v>
+      </c>
+      <c r="C67">
+        <v>24280</v>
+      </c>
+      <c r="D67">
+        <v>3.60550880432128E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68">
+        <v>2048</v>
+      </c>
+      <c r="C68">
+        <v>6130</v>
+      </c>
+      <c r="D68">
+        <v>1.20820999145507E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69">
+        <v>2048</v>
+      </c>
+      <c r="C69">
+        <v>6174</v>
+      </c>
+      <c r="D69">
+        <v>1.1244058609008701E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70">
+        <v>2048</v>
+      </c>
+      <c r="C70">
+        <v>6170</v>
+      </c>
+      <c r="D70">
+        <v>1.0188102722167899E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71">
+        <v>2048</v>
+      </c>
+      <c r="C71">
+        <v>90546</v>
+      </c>
+      <c r="D71">
+        <v>0.13002896308898901</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72">
+        <v>2048</v>
+      </c>
+      <c r="C72">
+        <v>89128</v>
+      </c>
+      <c r="D72">
+        <v>0.13641691207885701</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73">
+        <v>2048</v>
+      </c>
+      <c r="C73">
+        <v>88097</v>
+      </c>
+      <c r="D73">
+        <v>0.133769035339355</v>
       </c>
     </row>
   </sheetData>
